--- a/src/main/java/com/qa/testData/Book1.xlsx
+++ b/src/main/java/com/qa/testData/Book1.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\archetype-fitgoodies-quickstart\src\main\java\com\qa\testData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ashish projec\HemantAshuProject\HemantAshuProject\src\main\java\com\qa\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7620" windowHeight="2172"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7620" windowHeight="2175"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Username</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t>ashiish.verma+GurmanterSingh025@gmail.com</t>
-  </si>
-  <si>
-    <t>Completed</t>
   </si>
   <si>
     <t>ashiish.verma+Gurikbal12th02@gmail.com</t>
@@ -116,7 +113,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -446,16 +443,16 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.9453125" customWidth="1"/>
-    <col min="3" max="3" width="10.62890625" customWidth="1"/>
+    <col min="1" max="1" width="39" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -472,7 +469,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -480,16 +477,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -502,11 +496,8 @@
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -519,11 +510,8 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -536,11 +524,8 @@
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
@@ -554,7 +539,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -568,54 +553,51 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" s="1" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="1" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
@@ -624,7 +606,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
